--- a/ig/ch-lab-order/ValueSet-normal-contexts-vitamin-d.xlsx
+++ b/ig/ch-lab-order/ValueSet-normal-contexts-vitamin-d.xlsx
@@ -7,19 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from SNOMED CT 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from SNOMED CT 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from SNOMED CT 6" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from SNOMED CT 7" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from SNOMED CT 8" r:id="rId11" sheetId="9"/>
-    <sheet name="Include from SNOMED CT 9" r:id="rId12" sheetId="10"/>
-    <sheet name="Include from SNOMED CT 10" r:id="rId13" sheetId="11"/>
-    <sheet name="Include from SNOMED CT 11" r:id="rId14" sheetId="12"/>
-    <sheet name="Include from SNOMED CT 12" r:id="rId15" sheetId="13"/>
-    <sheet name="Include from SNOMED CT 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
+    <sheet name="Include #6" r:id="rId10" sheetId="8"/>
+    <sheet name="Include #7" r:id="rId11" sheetId="9"/>
+    <sheet name="Include #8" r:id="rId12" sheetId="10"/>
+    <sheet name="Include #9" r:id="rId13" sheetId="11"/>
+    <sheet name="Include #10" r:id="rId14" sheetId="12"/>
+    <sheet name="Include #11" r:id="rId15" sheetId="13"/>
+    <sheet name="Include #12" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -87,7 +87,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
